--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3575.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3575.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.11419338027021</v>
+        <v>4.654872894287109</v>
       </c>
       <c r="B1">
-        <v>1.691659672441683</v>
+        <v>2.490117073059082</v>
       </c>
       <c r="C1">
-        <v>3.764465615746461</v>
+        <v>1.784607648849487</v>
       </c>
       <c r="D1">
-        <v>4.392304906879485</v>
+        <v>1.6317138671875</v>
       </c>
       <c r="E1">
-        <v>1.225756557425414</v>
+        <v>1.65909481048584</v>
       </c>
     </row>
   </sheetData>
